--- a/docs/Extension-UKCore-NHSCommunication.xlsx
+++ b/docs/Extension-UKCore-NHSCommunication.xlsx
@@ -1880,7 +1880,7 @@
         <v>38</v>
       </c>
       <c r="F14" t="s" s="2">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="G14" t="s" s="2">
         <v>37</v>

--- a/docs/Extension-UKCore-NHSCommunication.xlsx
+++ b/docs/Extension-UKCore-NHSCommunication.xlsx
@@ -9,13 +9,13 @@
     <sheet name="Elements" r:id="rId3" sheetId="1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="true">Elements!$A$1:$AJ$51</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="true">Elements!$A$1:$AJ$31</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1612" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="994" uniqueCount="103">
   <si>
     <t>Path</t>
   </si>
@@ -151,6 +151,9 @@
 ext-1:Must have either extensions or value[x], not both {extension.exists() != value.exists()}</t>
   </si>
   <si>
+    <t>N/A</t>
+  </si>
+  <si>
     <t>Extension.id</t>
   </si>
   <si>
@@ -176,11 +179,21 @@
     <t>Extension.extension</t>
   </si>
   <si>
+    <t>extensions
+user content</t>
+  </si>
+  <si>
     <t xml:space="preserve">Extension
 </t>
   </si>
   <si>
-    <t>An Extension</t>
+    <t>Additional content defined by implementations</t>
+  </si>
+  <si>
+    <t>May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
+  </si>
+  <si>
+    <t>There can be no stigma associated with the use of extensions by any application, project, or standard - regardless of the institution or jurisdiction that uses or defines the extensions.  The use of extensions is what allows the FHIR specification to retain a core level of simplicity for everyone.</t>
   </si>
   <si>
     <t xml:space="preserve">value:url}
@@ -208,58 +221,38 @@
     <t>Extension.extension.extension</t>
   </si>
   <si>
-    <t>extensions
-user content</t>
-  </si>
-  <si>
-    <t>Additional content defined by implementations</t>
-  </si>
-  <si>
-    <t>May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
-  </si>
-  <si>
-    <t>There can be no stigma associated with the use of extensions by any application, project, or standard - regardless of the institution or jurisdiction that uses or defines the extensions.  The use of extensions is what allows the FHIR specification to retain a core level of simplicity for everyone.</t>
-  </si>
-  <si>
-    <t>Extension.extension.extension.id</t>
-  </si>
-  <si>
-    <t>Extension.extension.extension.extension</t>
-  </si>
-  <si>
-    <t>Extension.extension.extension.url</t>
-  </si>
-  <si>
-    <t xml:space="preserve">uri
+    <t>Extension.extension.url</t>
+  </si>
+  <si>
+    <t>identifies the meaning of the extension</t>
+  </si>
+  <si>
+    <t>Source of the definition for the extension code - a logical name or a URL.</t>
+  </si>
+  <si>
+    <t>The definition may point directly to a computable or human-readable definition of the extensibility codes, or it may be a logical URI as declared in some other specification. The definition SHALL be a URI for the Structure Definition defining the extension.</t>
+  </si>
+  <si>
+    <t>Extension.url</t>
+  </si>
+  <si>
+    <t>Extension.extension.value[x]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CodeableConcept
 </t>
   </si>
   <si>
-    <t>identifies the meaning of the extension</t>
-  </si>
-  <si>
-    <t>Source of the definition for the extension code - a logical name or a URL.</t>
-  </si>
-  <si>
-    <t>The definition may point directly to a computable or human-readable definition of the extensibility codes, or it may be a logical URI as declared in some other specification. The definition SHALL be a URI for the Structure Definition defining the extension.</t>
-  </si>
-  <si>
-    <t>Extension.url</t>
-  </si>
-  <si>
-    <t>N/A</t>
-  </si>
-  <si>
-    <t>Extension.extension.extension.value[x]</t>
-  </si>
-  <si>
-    <t>base64Binary
-booleancanonicalcodedatedateTimedecimalidinstantintegermarkdownoidpositiveIntstringtimeunsignedInturiurluuidAddressAgeAnnotationAttachmentCodeableConceptCodingContactPointCountDistanceDurationHumanNameIdentifierMoneyPeriodQuantityRangeRatioReferenceSampledDataSignatureTimingContactDetailContributorDataRequirementExpressionParameterDefinitionRelatedArtifactTriggerDefinitionUsageContextDosageMeta</t>
-  </si>
-  <si>
-    <t>Value of extension</t>
-  </si>
-  <si>
-    <t>Value of extension - must be one of a constrained set of the data types (see [Extensibility](http://build.fhir.org/extensibility.html) for a list).</t>
+    <t>A stream of bytes, base64 encoded</t>
+  </si>
+  <si>
+    <t>extensible</t>
+  </si>
+  <si>
+    <t>Human Language</t>
+  </si>
+  <si>
+    <t>https://fhir.nhs.uk/R4/ValueSet/UKCore-HumanLanguage</t>
   </si>
   <si>
     <t>Extension.value[x]</t>
@@ -269,25 +262,6 @@
 </t>
   </si>
   <si>
-    <t>Extension.extension.url</t>
-  </si>
-  <si>
-    <t>Extension.extension.value[x]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CodeableConcept
-</t>
-  </si>
-  <si>
-    <t>extensible</t>
-  </si>
-  <si>
-    <t>Human Language</t>
-  </si>
-  <si>
-    <t>https://fhir.nhs.uk/R4/ValueSet/UKCore-HumanLanguage</t>
-  </si>
-  <si>
     <t>preferred</t>
   </si>
   <si>
@@ -350,6 +324,16 @@
   </si>
   <si>
     <t>https://fhir.nhs.uk/R4/StructureDefinition/Extension-UKCore-NHSCommunication</t>
+  </si>
+  <si>
+    <t>base64Binary
+booleancanonicalcodedatedateTimedecimalidinstantintegermarkdownoidpositiveIntstringtimeunsignedInturiurluuidAddressAgeAnnotationAttachmentCodeableConceptCodingContactPointCountDistanceDurationHumanNameIdentifierMoneyPeriodQuantityRangeRatioReferenceSampledDataSignatureTimingContactDetailContributorDataRequirementExpressionParameterDefinitionRelatedArtifactTriggerDefinitionUsageContextDosage</t>
+  </si>
+  <si>
+    <t>Value of extension</t>
+  </si>
+  <si>
+    <t>Value of extension - must be one of a constrained set of the data types (see [Extensibility](extensibility.html) for a list).</t>
   </si>
 </sst>
 </file>
@@ -498,7 +482,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AJ51"/>
+  <dimension ref="A1:AJ31"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -507,7 +491,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="37.546875" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="28.2734375" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="24.8515625" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="12.3828125" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="5.8984375" customWidth="true" bestFit="true" hidden="true"/>
@@ -752,12 +736,12 @@
         <v>43</v>
       </c>
       <c r="AJ2" t="s" s="2">
-        <v>37</v>
+        <v>44</v>
       </c>
     </row>
     <row r="3" hidden="true">
       <c r="A3" t="s" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B3" s="2"/>
       <c r="C3" t="s" s="2">
@@ -768,7 +752,7 @@
         <v>38</v>
       </c>
       <c r="F3" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G3" t="s" s="2">
         <v>37</v>
@@ -780,13 +764,13 @@
         <v>37</v>
       </c>
       <c r="J3" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K3" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="L3" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="M3" s="2"/>
       <c r="N3" s="2"/>
@@ -837,13 +821,13 @@
         <v>37</v>
       </c>
       <c r="AE3" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AF3" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AG3" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AH3" t="s" s="2">
         <v>37</v>
@@ -852,16 +836,16 @@
         <v>37</v>
       </c>
       <c r="AJ3" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="4" hidden="true">
       <c r="A4" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B4" s="2"/>
       <c r="C4" t="s" s="2">
-        <v>37</v>
+        <v>53</v>
       </c>
       <c r="D4" s="2"/>
       <c r="E4" t="s" s="2">
@@ -880,15 +864,17 @@
         <v>37</v>
       </c>
       <c r="J4" t="s" s="2">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="K4" t="s" s="2">
-        <v>36</v>
+        <v>55</v>
       </c>
       <c r="L4" t="s" s="2">
-        <v>53</v>
-      </c>
-      <c r="M4" s="2"/>
+        <v>56</v>
+      </c>
+      <c r="M4" t="s" s="2">
+        <v>57</v>
+      </c>
       <c r="N4" s="2"/>
       <c r="O4" t="s" s="2">
         <v>37</v>
@@ -925,19 +911,19 @@
         <v>37</v>
       </c>
       <c r="AA4" t="s" s="2">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="AB4" t="s" s="2">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="AC4" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AD4" t="s" s="2">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="AE4" t="s" s="2">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="AF4" t="s" s="2">
         <v>38</v>
@@ -946,31 +932,31 @@
         <v>39</v>
       </c>
       <c r="AH4" t="s" s="2">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="AI4" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AJ4" t="s" s="2">
-        <v>37</v>
+        <v>44</v>
       </c>
     </row>
     <row r="5" hidden="true">
       <c r="A5" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="C5" t="s" s="2">
-        <v>37</v>
+        <v>53</v>
       </c>
       <c r="D5" s="2"/>
       <c r="E5" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F5" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G5" t="s" s="2">
         <v>37</v>
@@ -982,15 +968,17 @@
         <v>37</v>
       </c>
       <c r="J5" t="s" s="2">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="K5" t="s" s="2">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="L5" t="s" s="2">
-        <v>53</v>
-      </c>
-      <c r="M5" s="2"/>
+        <v>56</v>
+      </c>
+      <c r="M5" t="s" s="2">
+        <v>57</v>
+      </c>
       <c r="N5" s="2"/>
       <c r="O5" t="s" s="2">
         <v>37</v>
@@ -1039,7 +1027,7 @@
         <v>37</v>
       </c>
       <c r="AE5" t="s" s="2">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="AF5" t="s" s="2">
         <v>38</v>
@@ -1048,18 +1036,18 @@
         <v>39</v>
       </c>
       <c r="AH5" t="s" s="2">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="AI5" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AJ5" t="s" s="2">
-        <v>37</v>
+        <v>44</v>
       </c>
     </row>
     <row r="6" hidden="true">
       <c r="A6" t="s" s="2">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="B6" s="2"/>
       <c r="C6" t="s" s="2">
@@ -1070,7 +1058,7 @@
         <v>38</v>
       </c>
       <c r="F6" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G6" t="s" s="2">
         <v>37</v>
@@ -1082,13 +1070,13 @@
         <v>37</v>
       </c>
       <c r="J6" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K6" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="L6" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="M6" s="2"/>
       <c r="N6" s="2"/>
@@ -1139,13 +1127,13 @@
         <v>37</v>
       </c>
       <c r="AE6" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AF6" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AG6" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AH6" t="s" s="2">
         <v>37</v>
@@ -1154,16 +1142,16 @@
         <v>37</v>
       </c>
       <c r="AJ6" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="7" hidden="true">
       <c r="A7" t="s" s="2">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="B7" s="2"/>
       <c r="C7" t="s" s="2">
-        <v>62</v>
+        <v>53</v>
       </c>
       <c r="D7" s="2"/>
       <c r="E7" t="s" s="2">
@@ -1182,16 +1170,16 @@
         <v>37</v>
       </c>
       <c r="J7" t="s" s="2">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="K7" t="s" s="2">
-        <v>63</v>
+        <v>55</v>
       </c>
       <c r="L7" t="s" s="2">
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="M7" t="s" s="2">
-        <v>65</v>
+        <v>57</v>
       </c>
       <c r="N7" s="2"/>
       <c r="O7" t="s" s="2">
@@ -1229,19 +1217,19 @@
         <v>37</v>
       </c>
       <c r="AA7" t="s" s="2">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="AB7" t="s" s="2">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="AC7" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AD7" t="s" s="2">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="AE7" t="s" s="2">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="AF7" t="s" s="2">
         <v>38</v>
@@ -1250,13 +1238,13 @@
         <v>39</v>
       </c>
       <c r="AH7" t="s" s="2">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="AI7" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AJ7" t="s" s="2">
-        <v>50</v>
+        <v>44</v>
       </c>
     </row>
     <row r="8" hidden="true">
@@ -1269,10 +1257,10 @@
       </c>
       <c r="D8" s="2"/>
       <c r="E8" t="s" s="2">
-        <v>38</v>
+        <v>46</v>
       </c>
       <c r="F8" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G8" t="s" s="2">
         <v>37</v>
@@ -1284,22 +1272,24 @@
         <v>37</v>
       </c>
       <c r="J8" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K8" t="s" s="2">
-        <v>47</v>
+        <v>67</v>
       </c>
       <c r="L8" t="s" s="2">
-        <v>48</v>
-      </c>
-      <c r="M8" s="2"/>
+        <v>68</v>
+      </c>
+      <c r="M8" t="s" s="2">
+        <v>69</v>
+      </c>
       <c r="N8" s="2"/>
       <c r="O8" t="s" s="2">
         <v>37</v>
       </c>
       <c r="P8" s="2"/>
       <c r="Q8" t="s" s="2">
-        <v>37</v>
+        <v>62</v>
       </c>
       <c r="R8" t="s" s="2">
         <v>37</v>
@@ -1341,13 +1331,13 @@
         <v>37</v>
       </c>
       <c r="AE8" t="s" s="2">
-        <v>49</v>
+        <v>70</v>
       </c>
       <c r="AF8" t="s" s="2">
-        <v>38</v>
+        <v>46</v>
       </c>
       <c r="AG8" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AH8" t="s" s="2">
         <v>37</v>
@@ -1356,23 +1346,23 @@
         <v>37</v>
       </c>
       <c r="AJ8" t="s" s="2">
-        <v>50</v>
+        <v>44</v>
       </c>
     </row>
     <row r="9" hidden="true">
       <c r="A9" t="s" s="2">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="B9" s="2"/>
       <c r="C9" t="s" s="2">
-        <v>62</v>
+        <v>37</v>
       </c>
       <c r="D9" s="2"/>
       <c r="E9" t="s" s="2">
-        <v>38</v>
+        <v>46</v>
       </c>
       <c r="F9" t="s" s="2">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="G9" t="s" s="2">
         <v>37</v>
@@ -1384,16 +1374,16 @@
         <v>37</v>
       </c>
       <c r="J9" t="s" s="2">
-        <v>52</v>
+        <v>72</v>
       </c>
       <c r="K9" t="s" s="2">
         <v>63</v>
       </c>
       <c r="L9" t="s" s="2">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="M9" t="s" s="2">
-        <v>65</v>
+        <v>73</v>
       </c>
       <c r="N9" s="2"/>
       <c r="O9" t="s" s="2">
@@ -1419,62 +1409,64 @@
         <v>37</v>
       </c>
       <c r="W9" t="s" s="2">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="X9" t="s" s="2">
-        <v>37</v>
+        <v>75</v>
       </c>
       <c r="Y9" t="s" s="2">
-        <v>37</v>
+        <v>76</v>
       </c>
       <c r="Z9" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AA9" t="s" s="2">
-        <v>54</v>
+        <v>37</v>
       </c>
       <c r="AB9" t="s" s="2">
-        <v>55</v>
+        <v>37</v>
       </c>
       <c r="AC9" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AD9" t="s" s="2">
-        <v>56</v>
+        <v>37</v>
       </c>
       <c r="AE9" t="s" s="2">
-        <v>57</v>
+        <v>77</v>
       </c>
       <c r="AF9" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AG9" t="s" s="2">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="AH9" t="s" s="2">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="AI9" t="s" s="2">
-        <v>43</v>
+        <v>78</v>
       </c>
       <c r="AJ9" t="s" s="2">
-        <v>50</v>
+        <v>44</v>
       </c>
     </row>
     <row r="10" hidden="true">
       <c r="A10" t="s" s="2">
-        <v>68</v>
-      </c>
-      <c r="B10" s="2"/>
+        <v>52</v>
+      </c>
+      <c r="B10" t="s" s="2">
+        <v>79</v>
+      </c>
       <c r="C10" t="s" s="2">
-        <v>37</v>
+        <v>53</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" t="s" s="2">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="F10" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G10" t="s" s="2">
         <v>37</v>
@@ -1486,16 +1478,16 @@
         <v>37</v>
       </c>
       <c r="J10" t="s" s="2">
-        <v>69</v>
+        <v>54</v>
       </c>
       <c r="K10" t="s" s="2">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="L10" t="s" s="2">
-        <v>71</v>
+        <v>56</v>
       </c>
       <c r="M10" t="s" s="2">
-        <v>72</v>
+        <v>57</v>
       </c>
       <c r="N10" s="2"/>
       <c r="O10" t="s" s="2">
@@ -1545,27 +1537,27 @@
         <v>37</v>
       </c>
       <c r="AE10" t="s" s="2">
-        <v>73</v>
+        <v>61</v>
       </c>
       <c r="AF10" t="s" s="2">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="AG10" t="s" s="2">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="AH10" t="s" s="2">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="AI10" t="s" s="2">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="AJ10" t="s" s="2">
-        <v>74</v>
+        <v>44</v>
       </c>
     </row>
     <row r="11" hidden="true">
       <c r="A11" t="s" s="2">
-        <v>75</v>
+        <v>64</v>
       </c>
       <c r="B11" s="2"/>
       <c r="C11" t="s" s="2">
@@ -1576,7 +1568,7 @@
         <v>38</v>
       </c>
       <c r="F11" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G11" t="s" s="2">
         <v>37</v>
@@ -1588,13 +1580,13 @@
         <v>37</v>
       </c>
       <c r="J11" t="s" s="2">
-        <v>76</v>
+        <v>47</v>
       </c>
       <c r="K11" t="s" s="2">
-        <v>77</v>
+        <v>48</v>
       </c>
       <c r="L11" t="s" s="2">
-        <v>78</v>
+        <v>49</v>
       </c>
       <c r="M11" s="2"/>
       <c r="N11" s="2"/>
@@ -1645,38 +1637,38 @@
         <v>37</v>
       </c>
       <c r="AE11" t="s" s="2">
-        <v>79</v>
+        <v>50</v>
       </c>
       <c r="AF11" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AG11" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AH11" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AI11" t="s" s="2">
-        <v>80</v>
+        <v>37</v>
       </c>
       <c r="AJ11" t="s" s="2">
-        <v>74</v>
+        <v>51</v>
       </c>
     </row>
     <row r="12" hidden="true">
       <c r="A12" t="s" s="2">
-        <v>81</v>
+        <v>65</v>
       </c>
       <c r="B12" s="2"/>
       <c r="C12" t="s" s="2">
-        <v>37</v>
+        <v>53</v>
       </c>
       <c r="D12" s="2"/>
       <c r="E12" t="s" s="2">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="F12" t="s" s="2">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="G12" t="s" s="2">
         <v>37</v>
@@ -1688,16 +1680,16 @@
         <v>37</v>
       </c>
       <c r="J12" t="s" s="2">
-        <v>69</v>
+        <v>54</v>
       </c>
       <c r="K12" t="s" s="2">
-        <v>70</v>
+        <v>55</v>
       </c>
       <c r="L12" t="s" s="2">
-        <v>71</v>
+        <v>56</v>
       </c>
       <c r="M12" t="s" s="2">
-        <v>72</v>
+        <v>57</v>
       </c>
       <c r="N12" s="2"/>
       <c r="O12" t="s" s="2">
@@ -1705,69 +1697,69 @@
       </c>
       <c r="P12" s="2"/>
       <c r="Q12" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="R12" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="S12" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="T12" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="U12" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="V12" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="W12" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="X12" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="Y12" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="Z12" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AA12" t="s" s="2">
         <v>58</v>
       </c>
-      <c r="R12" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="S12" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="T12" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="U12" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="V12" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="W12" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="X12" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="Y12" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="Z12" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AA12" t="s" s="2">
-        <v>37</v>
-      </c>
       <c r="AB12" t="s" s="2">
-        <v>37</v>
+        <v>59</v>
       </c>
       <c r="AC12" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AD12" t="s" s="2">
-        <v>37</v>
+        <v>60</v>
       </c>
       <c r="AE12" t="s" s="2">
-        <v>73</v>
+        <v>61</v>
       </c>
       <c r="AF12" t="s" s="2">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="AG12" t="s" s="2">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="AH12" t="s" s="2">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="AI12" t="s" s="2">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="AJ12" t="s" s="2">
-        <v>74</v>
+        <v>44</v>
       </c>
     </row>
     <row r="13" hidden="true">
       <c r="A13" t="s" s="2">
-        <v>82</v>
+        <v>66</v>
       </c>
       <c r="B13" s="2"/>
       <c r="C13" t="s" s="2">
@@ -1775,10 +1767,10 @@
       </c>
       <c r="D13" s="2"/>
       <c r="E13" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F13" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G13" t="s" s="2">
         <v>37</v>
@@ -1790,22 +1782,24 @@
         <v>37</v>
       </c>
       <c r="J13" t="s" s="2">
-        <v>83</v>
+        <v>47</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>59</v>
+        <v>67</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>59</v>
-      </c>
-      <c r="M13" s="2"/>
+        <v>68</v>
+      </c>
+      <c r="M13" t="s" s="2">
+        <v>69</v>
+      </c>
       <c r="N13" s="2"/>
       <c r="O13" t="s" s="2">
         <v>37</v>
       </c>
       <c r="P13" s="2"/>
       <c r="Q13" t="s" s="2">
-        <v>37</v>
+        <v>79</v>
       </c>
       <c r="R13" t="s" s="2">
         <v>37</v>
@@ -1823,13 +1817,13 @@
         <v>37</v>
       </c>
       <c r="W13" t="s" s="2">
-        <v>84</v>
+        <v>37</v>
       </c>
       <c r="X13" t="s" s="2">
-        <v>85</v>
+        <v>37</v>
       </c>
       <c r="Y13" t="s" s="2">
-        <v>86</v>
+        <v>37</v>
       </c>
       <c r="Z13" t="s" s="2">
         <v>37</v>
@@ -1847,40 +1841,38 @@
         <v>37</v>
       </c>
       <c r="AE13" t="s" s="2">
-        <v>79</v>
+        <v>70</v>
       </c>
       <c r="AF13" t="s" s="2">
-        <v>38</v>
+        <v>46</v>
       </c>
       <c r="AG13" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AH13" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AI13" t="s" s="2">
-        <v>80</v>
+        <v>37</v>
       </c>
       <c r="AJ13" t="s" s="2">
-        <v>74</v>
+        <v>44</v>
       </c>
     </row>
     <row r="14" hidden="true">
       <c r="A14" t="s" s="2">
-        <v>51</v>
-      </c>
-      <c r="B14" t="s" s="2">
-        <v>87</v>
-      </c>
+        <v>71</v>
+      </c>
+      <c r="B14" s="2"/>
       <c r="C14" t="s" s="2">
         <v>37</v>
       </c>
       <c r="D14" s="2"/>
       <c r="E14" t="s" s="2">
-        <v>38</v>
+        <v>46</v>
       </c>
       <c r="F14" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G14" t="s" s="2">
         <v>37</v>
@@ -1892,15 +1884,17 @@
         <v>37</v>
       </c>
       <c r="J14" t="s" s="2">
-        <v>52</v>
+        <v>81</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>53</v>
-      </c>
-      <c r="M14" s="2"/>
+        <v>83</v>
+      </c>
+      <c r="M14" t="s" s="2">
+        <v>73</v>
+      </c>
       <c r="N14" s="2"/>
       <c r="O14" t="s" s="2">
         <v>37</v>
@@ -1949,38 +1943,40 @@
         <v>37</v>
       </c>
       <c r="AE14" t="s" s="2">
-        <v>57</v>
+        <v>77</v>
       </c>
       <c r="AF14" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AG14" t="s" s="2">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="AH14" t="s" s="2">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="AI14" t="s" s="2">
-        <v>43</v>
+        <v>78</v>
       </c>
       <c r="AJ14" t="s" s="2">
-        <v>37</v>
+        <v>44</v>
       </c>
     </row>
     <row r="15" hidden="true">
       <c r="A15" t="s" s="2">
-        <v>60</v>
-      </c>
-      <c r="B15" s="2"/>
+        <v>52</v>
+      </c>
+      <c r="B15" t="s" s="2">
+        <v>84</v>
+      </c>
       <c r="C15" t="s" s="2">
-        <v>37</v>
+        <v>53</v>
       </c>
       <c r="D15" s="2"/>
       <c r="E15" t="s" s="2">
         <v>38</v>
       </c>
       <c r="F15" t="s" s="2">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="G15" t="s" s="2">
         <v>37</v>
@@ -1992,15 +1988,17 @@
         <v>37</v>
       </c>
       <c r="J15" t="s" s="2">
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>47</v>
+        <v>85</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>48</v>
-      </c>
-      <c r="M15" s="2"/>
+        <v>56</v>
+      </c>
+      <c r="M15" t="s" s="2">
+        <v>57</v>
+      </c>
       <c r="N15" s="2"/>
       <c r="O15" t="s" s="2">
         <v>37</v>
@@ -2049,38 +2047,38 @@
         <v>37</v>
       </c>
       <c r="AE15" t="s" s="2">
-        <v>49</v>
+        <v>61</v>
       </c>
       <c r="AF15" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AG15" t="s" s="2">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="AH15" t="s" s="2">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="AI15" t="s" s="2">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="AJ15" t="s" s="2">
-        <v>50</v>
+        <v>44</v>
       </c>
     </row>
     <row r="16" hidden="true">
       <c r="A16" t="s" s="2">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="B16" s="2"/>
       <c r="C16" t="s" s="2">
-        <v>62</v>
+        <v>37</v>
       </c>
       <c r="D16" s="2"/>
       <c r="E16" t="s" s="2">
         <v>38</v>
       </c>
       <c r="F16" t="s" s="2">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="G16" t="s" s="2">
         <v>37</v>
@@ -2092,17 +2090,15 @@
         <v>37</v>
       </c>
       <c r="J16" t="s" s="2">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>63</v>
+        <v>48</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>64</v>
-      </c>
-      <c r="M16" t="s" s="2">
-        <v>65</v>
-      </c>
+        <v>49</v>
+      </c>
+      <c r="M16" s="2"/>
       <c r="N16" s="2"/>
       <c r="O16" t="s" s="2">
         <v>37</v>
@@ -2139,50 +2135,50 @@
         <v>37</v>
       </c>
       <c r="AA16" t="s" s="2">
-        <v>54</v>
+        <v>37</v>
       </c>
       <c r="AB16" t="s" s="2">
-        <v>55</v>
+        <v>37</v>
       </c>
       <c r="AC16" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AD16" t="s" s="2">
-        <v>56</v>
+        <v>37</v>
       </c>
       <c r="AE16" t="s" s="2">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="AF16" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AG16" t="s" s="2">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="AH16" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AI16" t="s" s="2">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="AJ16" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="17" hidden="true">
       <c r="A17" t="s" s="2">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B17" s="2"/>
       <c r="C17" t="s" s="2">
-        <v>37</v>
+        <v>53</v>
       </c>
       <c r="D17" s="2"/>
       <c r="E17" t="s" s="2">
         <v>38</v>
       </c>
       <c r="F17" t="s" s="2">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="G17" t="s" s="2">
         <v>37</v>
@@ -2194,15 +2190,17 @@
         <v>37</v>
       </c>
       <c r="J17" t="s" s="2">
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>47</v>
+        <v>55</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>48</v>
-      </c>
-      <c r="M17" s="2"/>
+        <v>56</v>
+      </c>
+      <c r="M17" t="s" s="2">
+        <v>57</v>
+      </c>
       <c r="N17" s="2"/>
       <c r="O17" t="s" s="2">
         <v>37</v>
@@ -2239,50 +2237,50 @@
         <v>37</v>
       </c>
       <c r="AA17" t="s" s="2">
-        <v>37</v>
+        <v>58</v>
       </c>
       <c r="AB17" t="s" s="2">
-        <v>37</v>
+        <v>59</v>
       </c>
       <c r="AC17" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AD17" t="s" s="2">
-        <v>37</v>
+        <v>60</v>
       </c>
       <c r="AE17" t="s" s="2">
-        <v>49</v>
+        <v>61</v>
       </c>
       <c r="AF17" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AG17" t="s" s="2">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="AH17" t="s" s="2">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="AI17" t="s" s="2">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="AJ17" t="s" s="2">
-        <v>50</v>
+        <v>44</v>
       </c>
     </row>
     <row r="18" hidden="true">
       <c r="A18" t="s" s="2">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B18" s="2"/>
       <c r="C18" t="s" s="2">
-        <v>62</v>
+        <v>37</v>
       </c>
       <c r="D18" s="2"/>
       <c r="E18" t="s" s="2">
-        <v>38</v>
+        <v>46</v>
       </c>
       <c r="F18" t="s" s="2">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="G18" t="s" s="2">
         <v>37</v>
@@ -2294,16 +2292,16 @@
         <v>37</v>
       </c>
       <c r="J18" t="s" s="2">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="N18" s="2"/>
       <c r="O18" t="s" s="2">
@@ -2311,7 +2309,7 @@
       </c>
       <c r="P18" s="2"/>
       <c r="Q18" t="s" s="2">
-        <v>37</v>
+        <v>84</v>
       </c>
       <c r="R18" t="s" s="2">
         <v>37</v>
@@ -2341,39 +2339,39 @@
         <v>37</v>
       </c>
       <c r="AA18" t="s" s="2">
-        <v>54</v>
+        <v>37</v>
       </c>
       <c r="AB18" t="s" s="2">
-        <v>55</v>
+        <v>37</v>
       </c>
       <c r="AC18" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AD18" t="s" s="2">
-        <v>56</v>
+        <v>37</v>
       </c>
       <c r="AE18" t="s" s="2">
-        <v>57</v>
+        <v>70</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>38</v>
+        <v>46</v>
       </c>
       <c r="AG18" t="s" s="2">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="AH18" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AI18" t="s" s="2">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="AJ18" t="s" s="2">
-        <v>50</v>
+        <v>44</v>
       </c>
     </row>
     <row r="19" hidden="true">
       <c r="A19" t="s" s="2">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="B19" s="2"/>
       <c r="C19" t="s" s="2">
@@ -2381,10 +2379,10 @@
       </c>
       <c r="D19" s="2"/>
       <c r="E19" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F19" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G19" t="s" s="2">
         <v>37</v>
@@ -2396,16 +2394,16 @@
         <v>37</v>
       </c>
       <c r="J19" t="s" s="2">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>70</v>
+        <v>86</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>71</v>
+        <v>86</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="N19" s="2"/>
       <c r="O19" t="s" s="2">
@@ -2431,13 +2429,13 @@
         <v>37</v>
       </c>
       <c r="W19" t="s" s="2">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="X19" t="s" s="2">
-        <v>37</v>
+        <v>87</v>
       </c>
       <c r="Y19" t="s" s="2">
-        <v>37</v>
+        <v>88</v>
       </c>
       <c r="Z19" t="s" s="2">
         <v>37</v>
@@ -2455,38 +2453,40 @@
         <v>37</v>
       </c>
       <c r="AE19" t="s" s="2">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="AG19" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AH19" t="s" s="2">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="AI19" t="s" s="2">
-        <v>37</v>
+        <v>78</v>
       </c>
       <c r="AJ19" t="s" s="2">
-        <v>74</v>
+        <v>44</v>
       </c>
     </row>
     <row r="20" hidden="true">
       <c r="A20" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="B20" s="2"/>
+        <v>52</v>
+      </c>
+      <c r="B20" t="s" s="2">
+        <v>89</v>
+      </c>
       <c r="C20" t="s" s="2">
-        <v>37</v>
+        <v>53</v>
       </c>
       <c r="D20" s="2"/>
       <c r="E20" t="s" s="2">
         <v>38</v>
       </c>
       <c r="F20" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G20" t="s" s="2">
         <v>37</v>
@@ -2498,15 +2498,17 @@
         <v>37</v>
       </c>
       <c r="J20" t="s" s="2">
-        <v>76</v>
+        <v>54</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>77</v>
+        <v>90</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="M20" s="2"/>
+        <v>56</v>
+      </c>
+      <c r="M20" t="s" s="2">
+        <v>57</v>
+      </c>
       <c r="N20" s="2"/>
       <c r="O20" t="s" s="2">
         <v>37</v>
@@ -2555,27 +2557,27 @@
         <v>37</v>
       </c>
       <c r="AE20" t="s" s="2">
-        <v>79</v>
+        <v>61</v>
       </c>
       <c r="AF20" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AG20" t="s" s="2">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="AH20" t="s" s="2">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="AI20" t="s" s="2">
-        <v>80</v>
+        <v>43</v>
       </c>
       <c r="AJ20" t="s" s="2">
-        <v>74</v>
+        <v>44</v>
       </c>
     </row>
     <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
-        <v>81</v>
+        <v>64</v>
       </c>
       <c r="B21" s="2"/>
       <c r="C21" t="s" s="2">
@@ -2583,10 +2585,10 @@
       </c>
       <c r="D21" s="2"/>
       <c r="E21" t="s" s="2">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="F21" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G21" t="s" s="2">
         <v>37</v>
@@ -2598,24 +2600,22 @@
         <v>37</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>69</v>
+        <v>47</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>70</v>
+        <v>48</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="M21" t="s" s="2">
-        <v>72</v>
-      </c>
+        <v>49</v>
+      </c>
+      <c r="M21" s="2"/>
       <c r="N21" s="2"/>
       <c r="O21" t="s" s="2">
         <v>37</v>
       </c>
       <c r="P21" s="2"/>
       <c r="Q21" t="s" s="2">
-        <v>87</v>
+        <v>37</v>
       </c>
       <c r="R21" t="s" s="2">
         <v>37</v>
@@ -2657,13 +2657,13 @@
         <v>37</v>
       </c>
       <c r="AE21" t="s" s="2">
-        <v>73</v>
+        <v>50</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="AG21" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AH21" t="s" s="2">
         <v>37</v>
@@ -2672,23 +2672,23 @@
         <v>37</v>
       </c>
       <c r="AJ21" t="s" s="2">
-        <v>74</v>
+        <v>51</v>
       </c>
     </row>
     <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
-        <v>82</v>
+        <v>65</v>
       </c>
       <c r="B22" s="2"/>
       <c r="C22" t="s" s="2">
-        <v>37</v>
+        <v>53</v>
       </c>
       <c r="D22" s="2"/>
       <c r="E22" t="s" s="2">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="F22" t="s" s="2">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="G22" t="s" s="2">
         <v>37</v>
@@ -2700,15 +2700,17 @@
         <v>37</v>
       </c>
       <c r="J22" t="s" s="2">
-        <v>89</v>
+        <v>54</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>90</v>
+        <v>55</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>91</v>
-      </c>
-      <c r="M22" s="2"/>
+        <v>56</v>
+      </c>
+      <c r="M22" t="s" s="2">
+        <v>57</v>
+      </c>
       <c r="N22" s="2"/>
       <c r="O22" t="s" s="2">
         <v>37</v>
@@ -2745,52 +2747,50 @@
         <v>37</v>
       </c>
       <c r="AA22" t="s" s="2">
-        <v>37</v>
+        <v>58</v>
       </c>
       <c r="AB22" t="s" s="2">
-        <v>37</v>
+        <v>59</v>
       </c>
       <c r="AC22" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AD22" t="s" s="2">
-        <v>37</v>
+        <v>60</v>
       </c>
       <c r="AE22" t="s" s="2">
-        <v>79</v>
+        <v>61</v>
       </c>
       <c r="AF22" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AG22" t="s" s="2">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="AH22" t="s" s="2">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="AI22" t="s" s="2">
-        <v>80</v>
+        <v>43</v>
       </c>
       <c r="AJ22" t="s" s="2">
-        <v>74</v>
+        <v>44</v>
       </c>
     </row>
     <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
-        <v>51</v>
-      </c>
-      <c r="B23" t="s" s="2">
-        <v>92</v>
-      </c>
+        <v>66</v>
+      </c>
+      <c r="B23" s="2"/>
       <c r="C23" t="s" s="2">
         <v>37</v>
       </c>
       <c r="D23" s="2"/>
       <c r="E23" t="s" s="2">
-        <v>38</v>
+        <v>46</v>
       </c>
       <c r="F23" t="s" s="2">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="G23" t="s" s="2">
         <v>37</v>
@@ -2802,22 +2802,24 @@
         <v>37</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>93</v>
+        <v>67</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>53</v>
-      </c>
-      <c r="M23" s="2"/>
+        <v>68</v>
+      </c>
+      <c r="M23" t="s" s="2">
+        <v>69</v>
+      </c>
       <c r="N23" s="2"/>
       <c r="O23" t="s" s="2">
         <v>37</v>
       </c>
       <c r="P23" s="2"/>
       <c r="Q23" t="s" s="2">
-        <v>37</v>
+        <v>89</v>
       </c>
       <c r="R23" t="s" s="2">
         <v>37</v>
@@ -2859,27 +2861,27 @@
         <v>37</v>
       </c>
       <c r="AE23" t="s" s="2">
-        <v>57</v>
+        <v>70</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>38</v>
+        <v>46</v>
       </c>
       <c r="AG23" t="s" s="2">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="AH23" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AI23" t="s" s="2">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="AJ23" t="s" s="2">
-        <v>37</v>
+        <v>44</v>
       </c>
     </row>
     <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
-        <v>60</v>
+        <v>71</v>
       </c>
       <c r="B24" s="2"/>
       <c r="C24" t="s" s="2">
@@ -2887,10 +2889,10 @@
       </c>
       <c r="D24" s="2"/>
       <c r="E24" t="s" s="2">
-        <v>38</v>
+        <v>46</v>
       </c>
       <c r="F24" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G24" t="s" s="2">
         <v>37</v>
@@ -2902,15 +2904,17 @@
         <v>37</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>46</v>
+        <v>72</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>47</v>
+        <v>91</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>48</v>
-      </c>
-      <c r="M24" s="2"/>
+        <v>92</v>
+      </c>
+      <c r="M24" t="s" s="2">
+        <v>73</v>
+      </c>
       <c r="N24" s="2"/>
       <c r="O24" t="s" s="2">
         <v>37</v>
@@ -2935,13 +2939,13 @@
         <v>37</v>
       </c>
       <c r="W24" t="s" s="2">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="X24" t="s" s="2">
-        <v>37</v>
+        <v>93</v>
       </c>
       <c r="Y24" t="s" s="2">
-        <v>37</v>
+        <v>94</v>
       </c>
       <c r="Z24" t="s" s="2">
         <v>37</v>
@@ -2959,38 +2963,40 @@
         <v>37</v>
       </c>
       <c r="AE24" t="s" s="2">
-        <v>49</v>
+        <v>77</v>
       </c>
       <c r="AF24" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AG24" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AH24" t="s" s="2">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="AI24" t="s" s="2">
-        <v>37</v>
+        <v>78</v>
       </c>
       <c r="AJ24" t="s" s="2">
-        <v>50</v>
+        <v>44</v>
       </c>
     </row>
     <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>61</v>
-      </c>
-      <c r="B25" s="2"/>
+        <v>52</v>
+      </c>
+      <c r="B25" t="s" s="2">
+        <v>95</v>
+      </c>
       <c r="C25" t="s" s="2">
-        <v>62</v>
+        <v>53</v>
       </c>
       <c r="D25" s="2"/>
       <c r="E25" t="s" s="2">
         <v>38</v>
       </c>
       <c r="F25" t="s" s="2">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="G25" t="s" s="2">
         <v>37</v>
@@ -3002,16 +3008,16 @@
         <v>37</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>63</v>
+        <v>96</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>65</v>
+        <v>57</v>
       </c>
       <c r="N25" s="2"/>
       <c r="O25" t="s" s="2">
@@ -3049,19 +3055,19 @@
         <v>37</v>
       </c>
       <c r="AA25" t="s" s="2">
-        <v>54</v>
+        <v>37</v>
       </c>
       <c r="AB25" t="s" s="2">
-        <v>55</v>
+        <v>37</v>
       </c>
       <c r="AC25" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AD25" t="s" s="2">
-        <v>56</v>
+        <v>37</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="AF25" t="s" s="2">
         <v>38</v>
@@ -3070,18 +3076,18 @@
         <v>39</v>
       </c>
       <c r="AH25" t="s" s="2">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="AI25" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AJ25" t="s" s="2">
-        <v>50</v>
+        <v>44</v>
       </c>
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" t="s" s="2">
@@ -3092,7 +3098,7 @@
         <v>38</v>
       </c>
       <c r="F26" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G26" t="s" s="2">
         <v>37</v>
@@ -3104,13 +3110,13 @@
         <v>37</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="M26" s="2"/>
       <c r="N26" s="2"/>
@@ -3161,13 +3167,13 @@
         <v>37</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AF26" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AG26" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AH26" t="s" s="2">
         <v>37</v>
@@ -3176,16 +3182,16 @@
         <v>37</v>
       </c>
       <c r="AJ26" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" t="s" s="2">
-        <v>62</v>
+        <v>53</v>
       </c>
       <c r="D27" s="2"/>
       <c r="E27" t="s" s="2">
@@ -3204,16 +3210,16 @@
         <v>37</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>63</v>
+        <v>55</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>65</v>
+        <v>57</v>
       </c>
       <c r="N27" s="2"/>
       <c r="O27" t="s" s="2">
@@ -3251,19 +3257,19 @@
         <v>37</v>
       </c>
       <c r="AA27" t="s" s="2">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="AB27" t="s" s="2">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="AC27" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AD27" t="s" s="2">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="AF27" t="s" s="2">
         <v>38</v>
@@ -3272,18 +3278,18 @@
         <v>39</v>
       </c>
       <c r="AH27" t="s" s="2">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="AI27" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AJ27" t="s" s="2">
-        <v>50</v>
+        <v>44</v>
       </c>
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" t="s" s="2">
@@ -3291,10 +3297,10 @@
       </c>
       <c r="D28" s="2"/>
       <c r="E28" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F28" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G28" t="s" s="2">
         <v>37</v>
@@ -3306,16 +3312,16 @@
         <v>37</v>
       </c>
       <c r="J28" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="K28" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="L28" t="s" s="2">
+        <v>68</v>
+      </c>
+      <c r="M28" t="s" s="2">
         <v>69</v>
-      </c>
-      <c r="K28" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="L28" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="M28" t="s" s="2">
-        <v>72</v>
       </c>
       <c r="N28" s="2"/>
       <c r="O28" t="s" s="2">
@@ -3323,7 +3329,7 @@
       </c>
       <c r="P28" s="2"/>
       <c r="Q28" t="s" s="2">
-        <v>37</v>
+        <v>95</v>
       </c>
       <c r="R28" t="s" s="2">
         <v>37</v>
@@ -3365,13 +3371,13 @@
         <v>37</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AG28" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AH28" t="s" s="2">
         <v>37</v>
@@ -3380,12 +3386,12 @@
         <v>37</v>
       </c>
       <c r="AJ28" t="s" s="2">
-        <v>74</v>
+        <v>44</v>
       </c>
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" t="s" s="2">
@@ -3393,10 +3399,10 @@
       </c>
       <c r="D29" s="2"/>
       <c r="E29" t="s" s="2">
-        <v>38</v>
+        <v>46</v>
       </c>
       <c r="F29" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G29" t="s" s="2">
         <v>37</v>
@@ -3408,15 +3414,17 @@
         <v>37</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>77</v>
+        <v>97</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="M29" s="2"/>
+        <v>98</v>
+      </c>
+      <c r="M29" t="s" s="2">
+        <v>73</v>
+      </c>
       <c r="N29" s="2"/>
       <c r="O29" t="s" s="2">
         <v>37</v>
@@ -3465,27 +3473,27 @@
         <v>37</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="AF29" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AG29" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AH29" t="s" s="2">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="AI29" t="s" s="2">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="AJ29" t="s" s="2">
-        <v>74</v>
+        <v>44</v>
       </c>
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>81</v>
+        <v>70</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" t="s" s="2">
@@ -3493,10 +3501,10 @@
       </c>
       <c r="D30" s="2"/>
       <c r="E30" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F30" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G30" t="s" s="2">
         <v>37</v>
@@ -3508,16 +3516,16 @@
         <v>37</v>
       </c>
       <c r="J30" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="K30" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="L30" t="s" s="2">
+        <v>68</v>
+      </c>
+      <c r="M30" t="s" s="2">
         <v>69</v>
-      </c>
-      <c r="K30" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="L30" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="M30" t="s" s="2">
-        <v>72</v>
       </c>
       <c r="N30" s="2"/>
       <c r="O30" t="s" s="2">
@@ -3525,7 +3533,7 @@
       </c>
       <c r="P30" s="2"/>
       <c r="Q30" t="s" s="2">
-        <v>92</v>
+        <v>99</v>
       </c>
       <c r="R30" t="s" s="2">
         <v>37</v>
@@ -3567,13 +3575,13 @@
         <v>37</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AG30" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AH30" t="s" s="2">
         <v>37</v>
@@ -3582,12 +3590,12 @@
         <v>37</v>
       </c>
       <c r="AJ30" t="s" s="2">
-        <v>74</v>
+        <v>44</v>
       </c>
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" t="s" s="2">
@@ -3595,10 +3603,10 @@
       </c>
       <c r="D31" s="2"/>
       <c r="E31" t="s" s="2">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="F31" t="s" s="2">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="G31" t="s" s="2">
         <v>37</v>
@@ -3610,15 +3618,17 @@
         <v>37</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>83</v>
+        <v>100</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>94</v>
+        <v>101</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>94</v>
-      </c>
-      <c r="M31" s="2"/>
+        <v>102</v>
+      </c>
+      <c r="M31" t="s" s="2">
+        <v>73</v>
+      </c>
       <c r="N31" s="2"/>
       <c r="O31" t="s" s="2">
         <v>37</v>
@@ -3643,13 +3653,13 @@
         <v>37</v>
       </c>
       <c r="W31" t="s" s="2">
-        <v>84</v>
+        <v>37</v>
       </c>
       <c r="X31" t="s" s="2">
-        <v>95</v>
+        <v>37</v>
       </c>
       <c r="Y31" t="s" s="2">
-        <v>96</v>
+        <v>37</v>
       </c>
       <c r="Z31" t="s" s="2">
         <v>37</v>
@@ -3667,2048 +3677,26 @@
         <v>37</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="AF31" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AG31" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AH31" t="s" s="2">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="AI31" t="s" s="2">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="AJ31" t="s" s="2">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="32" hidden="true">
-      <c r="A32" t="s" s="2">
-        <v>51</v>
-      </c>
-      <c r="B32" t="s" s="2">
-        <v>97</v>
-      </c>
-      <c r="C32" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="D32" s="2"/>
-      <c r="E32" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="F32" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="G32" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="H32" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="I32" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="J32" t="s" s="2">
-        <v>52</v>
-      </c>
-      <c r="K32" t="s" s="2">
-        <v>98</v>
-      </c>
-      <c r="L32" t="s" s="2">
-        <v>53</v>
-      </c>
-      <c r="M32" s="2"/>
-      <c r="N32" s="2"/>
-      <c r="O32" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="P32" s="2"/>
-      <c r="Q32" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="R32" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="S32" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="T32" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="U32" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="V32" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="W32" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="X32" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="Y32" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="Z32" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AA32" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AB32" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AC32" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AD32" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AE32" t="s" s="2">
-        <v>57</v>
-      </c>
-      <c r="AF32" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AG32" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AH32" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AI32" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AJ32" t="s" s="2">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="33" hidden="true">
-      <c r="A33" t="s" s="2">
-        <v>60</v>
-      </c>
-      <c r="B33" s="2"/>
-      <c r="C33" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="D33" s="2"/>
-      <c r="E33" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="F33" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="G33" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="H33" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="I33" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="J33" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="K33" t="s" s="2">
-        <v>47</v>
-      </c>
-      <c r="L33" t="s" s="2">
-        <v>48</v>
-      </c>
-      <c r="M33" s="2"/>
-      <c r="N33" s="2"/>
-      <c r="O33" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="P33" s="2"/>
-      <c r="Q33" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="R33" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="S33" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="T33" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="U33" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="V33" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="W33" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="X33" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="Y33" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="Z33" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AA33" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AB33" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AC33" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AD33" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AE33" t="s" s="2">
-        <v>49</v>
-      </c>
-      <c r="AF33" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AG33" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AH33" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AI33" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AJ33" t="s" s="2">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="34" hidden="true">
-      <c r="A34" t="s" s="2">
-        <v>61</v>
-      </c>
-      <c r="B34" s="2"/>
-      <c r="C34" t="s" s="2">
-        <v>62</v>
-      </c>
-      <c r="D34" s="2"/>
-      <c r="E34" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="F34" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="G34" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="H34" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="I34" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="J34" t="s" s="2">
-        <v>52</v>
-      </c>
-      <c r="K34" t="s" s="2">
-        <v>63</v>
-      </c>
-      <c r="L34" t="s" s="2">
-        <v>64</v>
-      </c>
-      <c r="M34" t="s" s="2">
-        <v>65</v>
-      </c>
-      <c r="N34" s="2"/>
-      <c r="O34" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="P34" s="2"/>
-      <c r="Q34" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="R34" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="S34" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="T34" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="U34" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="V34" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="W34" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="X34" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="Y34" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="Z34" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AA34" t="s" s="2">
-        <v>54</v>
-      </c>
-      <c r="AB34" t="s" s="2">
-        <v>55</v>
-      </c>
-      <c r="AC34" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AD34" t="s" s="2">
-        <v>56</v>
-      </c>
-      <c r="AE34" t="s" s="2">
-        <v>57</v>
-      </c>
-      <c r="AF34" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AG34" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AH34" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AI34" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AJ34" t="s" s="2">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="35" hidden="true">
-      <c r="A35" t="s" s="2">
-        <v>66</v>
-      </c>
-      <c r="B35" s="2"/>
-      <c r="C35" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="D35" s="2"/>
-      <c r="E35" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="F35" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="G35" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="H35" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="I35" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="J35" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="K35" t="s" s="2">
-        <v>47</v>
-      </c>
-      <c r="L35" t="s" s="2">
-        <v>48</v>
-      </c>
-      <c r="M35" s="2"/>
-      <c r="N35" s="2"/>
-      <c r="O35" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="P35" s="2"/>
-      <c r="Q35" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="R35" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="S35" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="T35" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="U35" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="V35" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="W35" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="X35" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="Y35" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="Z35" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AA35" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AB35" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AC35" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AD35" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AE35" t="s" s="2">
-        <v>49</v>
-      </c>
-      <c r="AF35" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AG35" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AH35" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AI35" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AJ35" t="s" s="2">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="36" hidden="true">
-      <c r="A36" t="s" s="2">
-        <v>67</v>
-      </c>
-      <c r="B36" s="2"/>
-      <c r="C36" t="s" s="2">
-        <v>62</v>
-      </c>
-      <c r="D36" s="2"/>
-      <c r="E36" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="F36" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="G36" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="H36" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="I36" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="J36" t="s" s="2">
-        <v>52</v>
-      </c>
-      <c r="K36" t="s" s="2">
-        <v>63</v>
-      </c>
-      <c r="L36" t="s" s="2">
-        <v>64</v>
-      </c>
-      <c r="M36" t="s" s="2">
-        <v>65</v>
-      </c>
-      <c r="N36" s="2"/>
-      <c r="O36" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="P36" s="2"/>
-      <c r="Q36" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="R36" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="S36" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="T36" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="U36" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="V36" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="W36" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="X36" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="Y36" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="Z36" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AA36" t="s" s="2">
-        <v>54</v>
-      </c>
-      <c r="AB36" t="s" s="2">
-        <v>55</v>
-      </c>
-      <c r="AC36" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AD36" t="s" s="2">
-        <v>56</v>
-      </c>
-      <c r="AE36" t="s" s="2">
-        <v>57</v>
-      </c>
-      <c r="AF36" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AG36" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AH36" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AI36" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AJ36" t="s" s="2">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="37" hidden="true">
-      <c r="A37" t="s" s="2">
-        <v>68</v>
-      </c>
-      <c r="B37" s="2"/>
-      <c r="C37" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="D37" s="2"/>
-      <c r="E37" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="F37" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="G37" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="H37" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="I37" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="J37" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="K37" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="L37" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="M37" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="N37" s="2"/>
-      <c r="O37" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="P37" s="2"/>
-      <c r="Q37" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="R37" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="S37" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="T37" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="U37" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="V37" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="W37" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="X37" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="Y37" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="Z37" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AA37" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AB37" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AC37" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AD37" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AE37" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AF37" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AG37" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AH37" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AI37" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AJ37" t="s" s="2">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="38" hidden="true">
-      <c r="A38" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="B38" s="2"/>
-      <c r="C38" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="D38" s="2"/>
-      <c r="E38" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="F38" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="G38" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="H38" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="I38" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="J38" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="K38" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="L38" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="M38" s="2"/>
-      <c r="N38" s="2"/>
-      <c r="O38" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="P38" s="2"/>
-      <c r="Q38" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="R38" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="S38" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="T38" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="U38" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="V38" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="W38" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="X38" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="Y38" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="Z38" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AA38" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AB38" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AC38" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AD38" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AE38" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AF38" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AG38" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AH38" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AI38" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AJ38" t="s" s="2">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="39" hidden="true">
-      <c r="A39" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="B39" s="2"/>
-      <c r="C39" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="D39" s="2"/>
-      <c r="E39" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="F39" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="G39" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="H39" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="I39" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="J39" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="K39" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="L39" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="M39" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="N39" s="2"/>
-      <c r="O39" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="P39" s="2"/>
-      <c r="Q39" t="s" s="2">
-        <v>97</v>
-      </c>
-      <c r="R39" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="S39" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="T39" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="U39" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="V39" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="W39" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="X39" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="Y39" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="Z39" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AA39" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AB39" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AC39" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AD39" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AE39" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AF39" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AG39" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AH39" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AI39" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AJ39" t="s" s="2">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="40" hidden="true">
-      <c r="A40" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="B40" s="2"/>
-      <c r="C40" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="D40" s="2"/>
-      <c r="E40" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="F40" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="G40" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="H40" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="I40" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="J40" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="K40" t="s" s="2">
-        <v>99</v>
-      </c>
-      <c r="L40" t="s" s="2">
-        <v>100</v>
-      </c>
-      <c r="M40" s="2"/>
-      <c r="N40" s="2"/>
-      <c r="O40" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="P40" s="2"/>
-      <c r="Q40" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="R40" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="S40" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="T40" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="U40" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="V40" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="W40" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="X40" t="s" s="2">
-        <v>101</v>
-      </c>
-      <c r="Y40" t="s" s="2">
-        <v>102</v>
-      </c>
-      <c r="Z40" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AA40" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AB40" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AC40" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AD40" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AE40" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AF40" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AG40" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AH40" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AI40" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AJ40" t="s" s="2">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="41" hidden="true">
-      <c r="A41" t="s" s="2">
-        <v>51</v>
-      </c>
-      <c r="B41" t="s" s="2">
-        <v>103</v>
-      </c>
-      <c r="C41" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="D41" s="2"/>
-      <c r="E41" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="F41" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="G41" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="H41" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="I41" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="J41" t="s" s="2">
-        <v>52</v>
-      </c>
-      <c r="K41" t="s" s="2">
-        <v>104</v>
-      </c>
-      <c r="L41" t="s" s="2">
-        <v>53</v>
-      </c>
-      <c r="M41" s="2"/>
-      <c r="N41" s="2"/>
-      <c r="O41" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="P41" s="2"/>
-      <c r="Q41" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="R41" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="S41" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="T41" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="U41" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="V41" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="W41" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="X41" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="Y41" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="Z41" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AA41" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AB41" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AC41" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AD41" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AE41" t="s" s="2">
-        <v>57</v>
-      </c>
-      <c r="AF41" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AG41" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AH41" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AI41" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AJ41" t="s" s="2">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="42" hidden="true">
-      <c r="A42" t="s" s="2">
-        <v>60</v>
-      </c>
-      <c r="B42" s="2"/>
-      <c r="C42" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="D42" s="2"/>
-      <c r="E42" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="F42" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="G42" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="H42" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="I42" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="J42" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="K42" t="s" s="2">
-        <v>47</v>
-      </c>
-      <c r="L42" t="s" s="2">
-        <v>48</v>
-      </c>
-      <c r="M42" s="2"/>
-      <c r="N42" s="2"/>
-      <c r="O42" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="P42" s="2"/>
-      <c r="Q42" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="R42" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="S42" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="T42" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="U42" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="V42" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="W42" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="X42" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="Y42" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="Z42" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AA42" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AB42" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AC42" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AD42" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AE42" t="s" s="2">
-        <v>49</v>
-      </c>
-      <c r="AF42" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AG42" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AH42" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AI42" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AJ42" t="s" s="2">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="43" hidden="true">
-      <c r="A43" t="s" s="2">
-        <v>61</v>
-      </c>
-      <c r="B43" s="2"/>
-      <c r="C43" t="s" s="2">
-        <v>62</v>
-      </c>
-      <c r="D43" s="2"/>
-      <c r="E43" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="F43" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="G43" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="H43" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="I43" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="J43" t="s" s="2">
-        <v>52</v>
-      </c>
-      <c r="K43" t="s" s="2">
-        <v>63</v>
-      </c>
-      <c r="L43" t="s" s="2">
-        <v>64</v>
-      </c>
-      <c r="M43" t="s" s="2">
-        <v>65</v>
-      </c>
-      <c r="N43" s="2"/>
-      <c r="O43" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="P43" s="2"/>
-      <c r="Q43" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="R43" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="S43" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="T43" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="U43" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="V43" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="W43" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="X43" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="Y43" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="Z43" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AA43" t="s" s="2">
-        <v>54</v>
-      </c>
-      <c r="AB43" t="s" s="2">
-        <v>55</v>
-      </c>
-      <c r="AC43" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AD43" t="s" s="2">
-        <v>56</v>
-      </c>
-      <c r="AE43" t="s" s="2">
-        <v>57</v>
-      </c>
-      <c r="AF43" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AG43" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AH43" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AI43" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AJ43" t="s" s="2">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="44" hidden="true">
-      <c r="A44" t="s" s="2">
-        <v>66</v>
-      </c>
-      <c r="B44" s="2"/>
-      <c r="C44" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="D44" s="2"/>
-      <c r="E44" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="F44" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="G44" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="H44" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="I44" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="J44" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="K44" t="s" s="2">
-        <v>47</v>
-      </c>
-      <c r="L44" t="s" s="2">
-        <v>48</v>
-      </c>
-      <c r="M44" s="2"/>
-      <c r="N44" s="2"/>
-      <c r="O44" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="P44" s="2"/>
-      <c r="Q44" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="R44" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="S44" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="T44" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="U44" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="V44" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="W44" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="X44" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="Y44" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="Z44" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AA44" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AB44" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AC44" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AD44" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AE44" t="s" s="2">
-        <v>49</v>
-      </c>
-      <c r="AF44" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AG44" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AH44" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AI44" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AJ44" t="s" s="2">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="45" hidden="true">
-      <c r="A45" t="s" s="2">
-        <v>67</v>
-      </c>
-      <c r="B45" s="2"/>
-      <c r="C45" t="s" s="2">
-        <v>62</v>
-      </c>
-      <c r="D45" s="2"/>
-      <c r="E45" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="F45" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="G45" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="H45" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="I45" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="J45" t="s" s="2">
-        <v>52</v>
-      </c>
-      <c r="K45" t="s" s="2">
-        <v>63</v>
-      </c>
-      <c r="L45" t="s" s="2">
-        <v>64</v>
-      </c>
-      <c r="M45" t="s" s="2">
-        <v>65</v>
-      </c>
-      <c r="N45" s="2"/>
-      <c r="O45" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="P45" s="2"/>
-      <c r="Q45" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="R45" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="S45" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="T45" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="U45" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="V45" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="W45" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="X45" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="Y45" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="Z45" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AA45" t="s" s="2">
-        <v>54</v>
-      </c>
-      <c r="AB45" t="s" s="2">
-        <v>55</v>
-      </c>
-      <c r="AC45" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AD45" t="s" s="2">
-        <v>56</v>
-      </c>
-      <c r="AE45" t="s" s="2">
-        <v>57</v>
-      </c>
-      <c r="AF45" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AG45" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AH45" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AI45" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AJ45" t="s" s="2">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="46" hidden="true">
-      <c r="A46" t="s" s="2">
-        <v>68</v>
-      </c>
-      <c r="B46" s="2"/>
-      <c r="C46" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="D46" s="2"/>
-      <c r="E46" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="F46" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="G46" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="H46" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="I46" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="J46" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="K46" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="L46" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="M46" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="N46" s="2"/>
-      <c r="O46" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="P46" s="2"/>
-      <c r="Q46" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="R46" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="S46" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="T46" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="U46" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="V46" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="W46" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="X46" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="Y46" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="Z46" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AA46" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AB46" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AC46" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AD46" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AE46" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AF46" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AG46" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AH46" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AI46" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AJ46" t="s" s="2">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="47" hidden="true">
-      <c r="A47" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="B47" s="2"/>
-      <c r="C47" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="D47" s="2"/>
-      <c r="E47" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="F47" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="G47" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="H47" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="I47" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="J47" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="K47" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="L47" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="M47" s="2"/>
-      <c r="N47" s="2"/>
-      <c r="O47" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="P47" s="2"/>
-      <c r="Q47" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="R47" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="S47" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="T47" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="U47" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="V47" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="W47" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="X47" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="Y47" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="Z47" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AA47" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AB47" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AC47" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AD47" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AE47" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AF47" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AG47" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AH47" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AI47" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AJ47" t="s" s="2">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="48" hidden="true">
-      <c r="A48" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="B48" s="2"/>
-      <c r="C48" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="D48" s="2"/>
-      <c r="E48" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="F48" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="G48" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="H48" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="I48" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="J48" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="K48" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="L48" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="M48" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="N48" s="2"/>
-      <c r="O48" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="P48" s="2"/>
-      <c r="Q48" t="s" s="2">
-        <v>103</v>
-      </c>
-      <c r="R48" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="S48" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="T48" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="U48" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="V48" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="W48" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="X48" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="Y48" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="Z48" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AA48" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AB48" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AC48" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AD48" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AE48" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AF48" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AG48" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AH48" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AI48" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AJ48" t="s" s="2">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="49" hidden="true">
-      <c r="A49" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="B49" s="2"/>
-      <c r="C49" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="D49" s="2"/>
-      <c r="E49" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="F49" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="G49" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="H49" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="I49" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="J49" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="K49" t="s" s="2">
-        <v>105</v>
-      </c>
-      <c r="L49" t="s" s="2">
-        <v>106</v>
-      </c>
-      <c r="M49" s="2"/>
-      <c r="N49" s="2"/>
-      <c r="O49" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="P49" s="2"/>
-      <c r="Q49" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="R49" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="S49" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="T49" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="U49" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="V49" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="W49" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="X49" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="Y49" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="Z49" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AA49" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AB49" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AC49" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AD49" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AE49" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AF49" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AG49" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AH49" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AI49" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AJ49" t="s" s="2">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="50" hidden="true">
-      <c r="A50" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="B50" s="2"/>
-      <c r="C50" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="D50" s="2"/>
-      <c r="E50" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="F50" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="G50" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="H50" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="I50" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="J50" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="K50" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="L50" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="M50" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="N50" s="2"/>
-      <c r="O50" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="P50" s="2"/>
-      <c r="Q50" t="s" s="2">
-        <v>107</v>
-      </c>
-      <c r="R50" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="S50" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="T50" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="U50" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="V50" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="W50" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="X50" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="Y50" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="Z50" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AA50" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AB50" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AC50" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AD50" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AE50" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AF50" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AG50" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AH50" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AI50" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AJ50" t="s" s="2">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="51" hidden="true">
-      <c r="A51" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="B51" s="2"/>
-      <c r="C51" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="D51" s="2"/>
-      <c r="E51" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="F51" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="G51" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="H51" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="I51" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="J51" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="K51" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="L51" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="M51" s="2"/>
-      <c r="N51" s="2"/>
-      <c r="O51" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="P51" s="2"/>
-      <c r="Q51" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="R51" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="S51" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="T51" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="U51" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="V51" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="W51" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="X51" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="Y51" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="Z51" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AA51" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AB51" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AC51" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AD51" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AE51" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AF51" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AG51" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AH51" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AI51" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AJ51" t="s" s="2">
-        <v>74</v>
+        <v>44</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AJ51">
+  <autoFilter ref="A1:AJ31">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -5718,7 +3706,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI50">
+  <conditionalFormatting sqref="A2:AI30">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>
